--- a/15_衡泰核对/衡泰手工差异.xlsx
+++ b/15_衡泰核对/衡泰手工差异.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Fixed_income_internship\15_衡泰核对\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524AF936-C8AC-49D8-B6AB-21A29075A426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -67,12 +73,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -80,8 +86,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -127,15 +140,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -177,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +230,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +282,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -451,7 +510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>150381</v>
       </c>
@@ -477,7 +536,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>163514</v>
       </c>
@@ -503,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>155565</v>
       </c>
@@ -529,7 +588,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>136464</v>
       </c>
@@ -555,7 +614,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>135310</v>
       </c>
@@ -581,7 +640,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>122000002</v>
       </c>
@@ -607,7 +666,7 @@
         <v>-5000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2080277</v>
       </c>
@@ -633,7 +692,7 @@
         <v>-10000</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -657,6 +716,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>